--- a/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7529" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7530" uniqueCount="841">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3798,6 +3798,10 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4334,7 +4338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4663,10 +4669,12 @@
       <c r="H11" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7530" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7531" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3744,10 +3744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3780,14 +3776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocitydevice_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Velocitydevice_2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert CRV"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3801,6 +3789,22 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_device_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_device_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4338,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4429,7 +4433,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4517,13 +4521,13 @@
         <v>805</v>
       </c>
       <c r="B6" s="8">
-        <v>41115</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4547,7 +4551,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4562,10 +4566,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>826</v>
+        <v>838</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>841</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4580,7 +4584,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -4592,11 +4596,9 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>808</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -4621,8 +4623,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>808</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>430</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9"/>
@@ -4647,10 +4653,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>825</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>1</v>
@@ -4682,7 +4686,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4698,7 +4702,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="4"/>
@@ -4710,14 +4714,14 @@
     </row>
     <row r="13" spans="1:14" ht="15">
       <c r="A13" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -4732,14 +4736,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>607</v>
@@ -4749,13 +4753,13 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4763,13 +4767,15 @@
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" ht="15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
@@ -4821,7 +4827,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>2</v>
@@ -4853,7 +4859,7 @@
         <v>60</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4878,7 +4884,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="4"/>
@@ -4889,8 +4895,8 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -4909,6 +4915,8 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1175_NformG2SupportVelocityDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7531" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7530" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3776,10 +3776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"Liebert CRV"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3796,15 +3792,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$Velocity_device_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$Velocity_device_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_device_2$</t>
+    <t>VerifyContains</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13-25</t>
+    <t>"Liebert MPX/MPH"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4343,7 +4343,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4433,7 +4433,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4566,11 +4566,9 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>841</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4674,7 +4672,7 @@
         <v>825</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>1</v>
@@ -4759,7 +4757,7 @@
         <v>839</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -4856,10 +4854,10 @@
         <v>608</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>60</v>
+        <v>840</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4884,7 +4882,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="4"/>
